--- a/Solidworks/Drawings/OpSheet.xlsx
+++ b/Solidworks/Drawings/OpSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\Solidworks\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8426965-DFDE-4517-B2B5-7D779D7399CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41671E63-7E91-4F49-8CED-6F8E1F35AF5E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4170" xr2:uid="{19255287-C27E-4F71-82E3-7A54D86417C6}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>Manufacturing Process Sheet</t>
   </si>
@@ -40,7 +39,199 @@
     <t>Tools</t>
   </si>
   <si>
-    <t xml:space="preserve">Cut 2x1 aluminum rectangular to a length of </t>
+    <t>Cut 2x1 aluminum rectangular tube to a length of 13"</t>
+  </si>
+  <si>
+    <t>Drill M3 clearance hole (3.4 mm) on centerline of tube and 3.5" from end</t>
+  </si>
+  <si>
+    <t>Mill/3.4mm drill bit</t>
+  </si>
+  <si>
+    <t>Drill M3 clearance hole (3.4 mm) on centerline of tube and 6" from first hole</t>
+  </si>
+  <si>
+    <t>FR1</t>
+  </si>
+  <si>
+    <t>Bandsaw</t>
+  </si>
+  <si>
+    <t>Cut 7.32" x .75" rectangle (staring 2.68" from the same edge the first hole was drilled on</t>
+  </si>
+  <si>
+    <t>Mill (.25" bit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Perform operations 2-6 on 1" wide face</t>
+  </si>
+  <si>
+    <t>*On 2" Wide Face</t>
+  </si>
+  <si>
+    <t>Mill (.5" bit)</t>
+  </si>
+  <si>
+    <t>Drill .5" hole 6.321" from first .5" axle hole</t>
+  </si>
+  <si>
+    <t>Drill .5" hole 3.179" from first referenced edge (for axle)</t>
+  </si>
+  <si>
+    <t>On same horizontal line, (but on other side of .5" hole) tap M3x.5 thread 2.5" away from first tapped hole</t>
+  </si>
+  <si>
+    <t>Estimated Time</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>15 minutes</t>
+  </si>
+  <si>
+    <t>20 minutes</t>
+  </si>
+  <si>
+    <t>Mill (M3x.5 Tap)</t>
+  </si>
+  <si>
+    <t>Moving farther from the originally referenced edge, Tap M3x.5 thread .625" above and .875" from center of previous axle hole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertical (across 2" width) tap M3x.5" thread 1.25" below previous </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On same line (horizontal), tap M3x.5 2.5" from previous and below/on same vertical line of first tap </t>
+  </si>
+  <si>
+    <t>FR3</t>
+  </si>
+  <si>
+    <t>FR2 (2x)</t>
+  </si>
+  <si>
+    <t>Cut aluminum rectangular tube to a length of 2"</t>
+  </si>
+  <si>
+    <t>Tap M3x.5" thread on center line .5" from edge</t>
+  </si>
+  <si>
+    <t>Tap M3x.5" thread 4.25" from same referenced edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap M3x.5" thread 8.75" from same referenced edge </t>
+  </si>
+  <si>
+    <t>Tap M3x.5" thread on center line .5" from opposite edge</t>
+  </si>
+  <si>
+    <t>Tap M3x.5" thread .5" from horizontal edge and .25" from vertical edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tap M3x.5" thread 1" below previous </t>
+  </si>
+  <si>
+    <t>FR4</t>
+  </si>
+  <si>
+    <t>Cut aluminum rectangular tube to a length of 3.75"</t>
+  </si>
+  <si>
+    <t>On same side hole was tapped (but on 2" face)cut slot for FR (Roller/bearing)</t>
+  </si>
+  <si>
+    <t>Tap M3x.5" thread .5" from horizontal edge and .5" from vertical edge on 1" face</t>
+  </si>
+  <si>
+    <t>FR5</t>
+  </si>
+  <si>
+    <t>Cut aluminum rectangular tube to a length of 7"</t>
+  </si>
+  <si>
+    <t>On centerline, Tap M3x.5" thread 3.5" from horizontal edge</t>
+  </si>
+  <si>
+    <t>FR6</t>
+  </si>
+  <si>
+    <t>Cut alimunum rectangular tube to a length of 5.5"</t>
+  </si>
+  <si>
+    <t>On 1" face, Tap M3x.5" thread.5" from horizntal and vertical edge</t>
+  </si>
+  <si>
+    <t>On one side of 23" face, cut 1.22" x 4" window</t>
+  </si>
+  <si>
+    <t>Mill</t>
+  </si>
+  <si>
+    <t>On other side of 2" face,(and on centerline) cut slot for roller/bearing</t>
+  </si>
+  <si>
+    <t>On same side of 2" face, drill the 4 M3 clearnace holes for motor mount</t>
+  </si>
+  <si>
+    <t>Mill (3.4 mm bit)</t>
+  </si>
+  <si>
+    <t>In center of 4 clearance holes, drill .2756" hole for motor</t>
+  </si>
+  <si>
+    <t>Mill (7 mm drill bit)</t>
+  </si>
+  <si>
+    <t>RH1</t>
+  </si>
+  <si>
+    <t>Cut 3/8" aluminum to 2.7" x 2.7" triangle with .75" radii at edges</t>
+  </si>
+  <si>
+    <t>CNC router</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>Drill 4 .5" clearance holes for roller bars</t>
+  </si>
+  <si>
+    <t>AF1</t>
+  </si>
+  <si>
+    <t>Cut .75" stock aluminum rod to 3.67" length</t>
+  </si>
+  <si>
+    <t>Turn rod down to .5" with the exception of .6" diamter (.2" long) end</t>
+  </si>
+  <si>
+    <t>Lathe</t>
+  </si>
+  <si>
+    <t>Cut .25" long set screw slot starting .44" from .6" diamter end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 minutes</t>
+  </si>
+  <si>
+    <t>AR1*</t>
+  </si>
+  <si>
+    <t>Cut aluminum rod to 4" length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn rod down to .5" </t>
+  </si>
+  <si>
+    <t>turn one end down to .25" diameter for .437" long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut set screw slot in .25" dimater </t>
+  </si>
+  <si>
+    <t>EP1</t>
   </si>
 </sst>
 </file>
@@ -392,24 +583,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC602E30-84C4-4573-9E51-6B1E1DE36C58}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="97" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -419,108 +617,641 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>20</v>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
